--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4BC2E-DC01-4610-8FED-D53D6DFB14B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3336891-ECE7-4AC3-9A95-1261E55F7BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{3DD01F00-F06F-4F43-ABD5-6A8D43C4130F}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{A9B84D1F-B16C-46C4-8358-94324DBBD7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6C1962-4CC9-4066-8990-A794106AFAFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592FFAE3-D464-4D8C-A186-47378C17D3A4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3336891-ECE7-4AC3-9A95-1261E55F7BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB6C4E8-9F94-4282-BC23-E1ED8F677AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{A9B84D1F-B16C-46C4-8358-94324DBBD7B8}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{6BBBF324-2676-4292-8118-3921CB99417C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592FFAE3-D464-4D8C-A186-47378C17D3A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A163B7AE-1F70-47BE-8095-5E862A9FB17C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>59.156471642828166</v>
+        <v>72.059916996762951</v>
       </c>
     </row>
   </sheetData>
